--- a/lists/zilo.xlsx
+++ b/lists/zilo.xlsx
@@ -11871,10 +11871,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="K2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.15"/>
@@ -11889,9 +11889,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="17.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="17.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="14" style="3" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="28" style="0" width="11.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1017" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="27" min="14" style="3" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1017" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/lists/zilo.xlsx
+++ b/lists/zilo.xlsx
@@ -11,12 +11,12 @@
     <sheet name="lexcauc" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">lexcauc!$B$1:$AD$1725</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">lexcauc!$B$1:$K$1725</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn__FilterDatabase" vbProcedure="false">lexcauc!$I$1:$K$2310</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="parameters" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="parameters_1" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="parameters_2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">lexcauc!$B$1:$K$1725</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">lexcauc!$B$1:$AD$1725</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7625" uniqueCount="3689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7627" uniqueCount="3692">
   <si>
     <t xml:space="preserve">form.id</t>
   </si>
@@ -9956,22 +9956,31 @@
     <t xml:space="preserve">ЖЁСТКИЙ</t>
   </si>
   <si>
+    <t xml:space="preserve">FIRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">къвак1унниб</t>
+  </si>
+  <si>
+    <t xml:space="preserve">жёсткий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЯГКИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лъуна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТВЁРДЫЙ</t>
+  </si>
+  <si>
     <t xml:space="preserve">HARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">къвак1унниб</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЯГКИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">лъуна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТВЁРДЫЙ</t>
   </si>
   <si>
     <t xml:space="preserve">бещия</t>
@@ -11872,12 +11881,12 @@
   <dimension ref="A1:AMJ1728"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="K1720" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="K1537" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2:A1725"/>
+      <selection pane="bottomLeft" activeCell="H1549" activeCellId="0" sqref="H1549"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="5.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.15"/>
@@ -51690,6 +51699,12 @@
       <c r="L1549" s="5" t="s">
         <v>3283</v>
       </c>
+      <c r="P1549" s="3" t="s">
+        <v>3284</v>
+      </c>
+      <c r="Q1549" s="3" t="s">
+        <v>3285</v>
+      </c>
       <c r="AD1549" s="0" t="s">
         <v>33</v>
       </c>
@@ -51706,13 +51721,13 @@
         <v>1000</v>
       </c>
       <c r="F1550" s="2" t="s">
-        <v>3284</v>
+        <v>3286</v>
       </c>
       <c r="G1550" s="1" t="s">
-        <v>3285</v>
+        <v>3287</v>
       </c>
       <c r="L1550" s="5" t="s">
-        <v>3286</v>
+        <v>3288</v>
       </c>
       <c r="AD1550" s="0" t="s">
         <v>33</v>
@@ -51730,13 +51745,13 @@
         <v>1001</v>
       </c>
       <c r="F1551" s="2" t="s">
-        <v>3287</v>
+        <v>3289</v>
       </c>
       <c r="G1551" s="1" t="s">
-        <v>3282</v>
+        <v>3290</v>
       </c>
       <c r="L1551" s="5" t="s">
-        <v>3288</v>
+        <v>3291</v>
       </c>
       <c r="M1551" s="0"/>
       <c r="N1551" s="0"/>
@@ -51756,13 +51771,13 @@
         <v>1002</v>
       </c>
       <c r="F1552" s="2" t="s">
-        <v>3289</v>
+        <v>3292</v>
       </c>
       <c r="G1552" s="1" t="s">
-        <v>3290</v>
+        <v>3293</v>
       </c>
       <c r="L1552" s="5" t="s">
-        <v>3291</v>
+        <v>3294</v>
       </c>
       <c r="AD1552" s="0" t="s">
         <v>33</v>
@@ -51780,13 +51795,13 @@
         <v>1003</v>
       </c>
       <c r="F1553" s="2" t="s">
-        <v>3292</v>
+        <v>3295</v>
       </c>
       <c r="G1553" s="1" t="s">
-        <v>3293</v>
+        <v>3296</v>
       </c>
       <c r="L1553" s="5" t="s">
-        <v>3294</v>
+        <v>3297</v>
       </c>
       <c r="AC1553" s="9"/>
       <c r="AD1553" s="0" t="s">
@@ -51805,13 +51820,13 @@
         <v>1004</v>
       </c>
       <c r="F1554" s="2" t="s">
-        <v>3295</v>
+        <v>3298</v>
       </c>
       <c r="G1554" s="1" t="s">
-        <v>3296</v>
+        <v>3299</v>
       </c>
       <c r="L1554" s="5" t="s">
-        <v>3297</v>
+        <v>3300</v>
       </c>
       <c r="AD1554" s="0" t="s">
         <v>33</v>
@@ -51829,13 +51844,13 @@
         <v>1005</v>
       </c>
       <c r="F1555" s="2" t="s">
-        <v>3298</v>
+        <v>3301</v>
       </c>
       <c r="G1555" s="1" t="s">
-        <v>3299</v>
+        <v>3302</v>
       </c>
       <c r="L1555" s="5" t="s">
-        <v>3300</v>
+        <v>3303</v>
       </c>
       <c r="AC1555" s="9"/>
       <c r="AD1555" s="0" t="s">
@@ -51854,13 +51869,13 @@
         <v>1006</v>
       </c>
       <c r="F1556" s="6" t="s">
-        <v>3301</v>
+        <v>3304</v>
       </c>
       <c r="G1556" s="1" t="s">
-        <v>3302</v>
+        <v>3305</v>
       </c>
       <c r="L1556" s="5" t="s">
-        <v>3303</v>
+        <v>3306</v>
       </c>
       <c r="AD1556" s="0" t="s">
         <v>33</v>
@@ -51878,13 +51893,13 @@
         <v>1007</v>
       </c>
       <c r="F1557" s="2" t="s">
-        <v>3304</v>
+        <v>3307</v>
       </c>
       <c r="G1557" s="1" t="s">
-        <v>3305</v>
+        <v>3308</v>
       </c>
       <c r="L1557" s="5" t="s">
-        <v>3306</v>
+        <v>3309</v>
       </c>
       <c r="AC1557" s="9"/>
       <c r="AD1557" s="0" t="s">
@@ -51903,13 +51918,13 @@
         <v>1008</v>
       </c>
       <c r="F1558" s="2" t="s">
-        <v>3307</v>
+        <v>3310</v>
       </c>
       <c r="G1558" s="1" t="s">
-        <v>3308</v>
+        <v>3311</v>
       </c>
       <c r="L1558" s="5" t="s">
-        <v>3309</v>
+        <v>3312</v>
       </c>
       <c r="AD1558" s="0" t="s">
         <v>33</v>
@@ -51927,13 +51942,13 @@
         <v>1009</v>
       </c>
       <c r="F1559" s="2" t="s">
-        <v>3310</v>
+        <v>3313</v>
       </c>
       <c r="G1559" s="1" t="s">
-        <v>3311</v>
+        <v>3314</v>
       </c>
       <c r="L1559" s="5" t="s">
-        <v>3312</v>
+        <v>3315</v>
       </c>
       <c r="AB1559" s="0"/>
       <c r="AD1559" s="0" t="s">
@@ -51952,13 +51967,13 @@
         <v>1010</v>
       </c>
       <c r="F1560" s="2" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="G1560" s="1" t="s">
-        <v>3314</v>
+        <v>3317</v>
       </c>
       <c r="L1560" s="5" t="s">
-        <v>3315</v>
+        <v>3318</v>
       </c>
       <c r="AB1560" s="0"/>
       <c r="AD1560" s="0" t="s">
@@ -51977,13 +51992,13 @@
         <v>1011</v>
       </c>
       <c r="F1561" s="2" t="s">
-        <v>3316</v>
+        <v>3319</v>
       </c>
       <c r="G1561" s="1" t="s">
-        <v>3317</v>
+        <v>3320</v>
       </c>
       <c r="L1561" s="5" t="s">
-        <v>3318</v>
+        <v>3321</v>
       </c>
       <c r="AB1561" s="0"/>
       <c r="AD1561" s="0" t="s">
@@ -52002,13 +52017,13 @@
         <v>1012</v>
       </c>
       <c r="F1562" s="2" t="s">
-        <v>3319</v>
+        <v>3322</v>
       </c>
       <c r="G1562" s="1" t="s">
-        <v>3320</v>
+        <v>3323</v>
       </c>
       <c r="L1562" s="5" t="s">
-        <v>3321</v>
+        <v>3324</v>
       </c>
       <c r="AD1562" s="0" t="s">
         <v>33</v>
@@ -52026,13 +52041,13 @@
         <v>1013</v>
       </c>
       <c r="F1563" s="2" t="s">
-        <v>3322</v>
+        <v>3325</v>
       </c>
       <c r="G1563" s="1" t="s">
-        <v>3323</v>
+        <v>3326</v>
       </c>
       <c r="L1563" s="5" t="s">
-        <v>3324</v>
+        <v>3327</v>
       </c>
       <c r="AB1563" s="0"/>
       <c r="AD1563" s="0" t="s">
@@ -52051,13 +52066,13 @@
         <v>1014</v>
       </c>
       <c r="F1564" s="2" t="s">
-        <v>3325</v>
+        <v>3328</v>
       </c>
       <c r="G1564" s="1" t="s">
-        <v>3326</v>
+        <v>3329</v>
       </c>
       <c r="L1564" s="5" t="s">
-        <v>3327</v>
+        <v>3330</v>
       </c>
       <c r="AD1564" s="0" t="s">
         <v>33</v>
@@ -52075,13 +52090,13 @@
         <v>1015</v>
       </c>
       <c r="F1565" s="2" t="s">
-        <v>3328</v>
+        <v>3331</v>
       </c>
       <c r="G1565" s="1" t="s">
-        <v>3329</v>
+        <v>3332</v>
       </c>
       <c r="L1565" s="5" t="s">
-        <v>3330</v>
+        <v>3333</v>
       </c>
       <c r="AB1565" s="0"/>
       <c r="AD1565" s="0" t="s">
@@ -52100,13 +52115,13 @@
         <v>1016</v>
       </c>
       <c r="F1566" s="2" t="s">
-        <v>3331</v>
+        <v>3334</v>
       </c>
       <c r="G1566" s="1" t="s">
-        <v>3332</v>
+        <v>3335</v>
       </c>
       <c r="L1566" s="5" t="s">
-        <v>3333</v>
+        <v>3336</v>
       </c>
       <c r="AD1566" s="0" t="s">
         <v>33</v>
@@ -52124,13 +52139,13 @@
         <v>1017</v>
       </c>
       <c r="F1567" s="2" t="s">
-        <v>3334</v>
+        <v>3337</v>
       </c>
       <c r="G1567" s="1" t="s">
-        <v>3335</v>
+        <v>3338</v>
       </c>
       <c r="L1567" s="5" t="s">
-        <v>3336</v>
+        <v>3339</v>
       </c>
       <c r="M1567" s="0"/>
       <c r="AD1567" s="0" t="s">
@@ -52149,13 +52164,13 @@
         <v>1018</v>
       </c>
       <c r="F1568" s="2" t="s">
-        <v>3337</v>
+        <v>3340</v>
       </c>
       <c r="G1568" s="1" t="s">
-        <v>3338</v>
+        <v>3341</v>
       </c>
       <c r="L1568" s="5" t="s">
-        <v>3339</v>
+        <v>3342</v>
       </c>
       <c r="M1568" s="0"/>
       <c r="N1568" s="0"/>
@@ -52176,10 +52191,10 @@
         <v>1019</v>
       </c>
       <c r="F1569" s="2" t="s">
-        <v>3340</v>
+        <v>3343</v>
       </c>
       <c r="G1569" s="1" t="s">
-        <v>3341</v>
+        <v>3344</v>
       </c>
       <c r="L1569" s="5" t="s">
         <v>35</v>
@@ -52200,13 +52215,13 @@
         <v>1020</v>
       </c>
       <c r="F1570" s="2" t="s">
-        <v>3342</v>
+        <v>3345</v>
       </c>
       <c r="G1570" s="1" t="s">
         <v>2737</v>
       </c>
       <c r="L1570" s="5" t="s">
-        <v>3343</v>
+        <v>3346</v>
       </c>
       <c r="AD1570" s="0" t="s">
         <v>33</v>
@@ -52224,13 +52239,13 @@
         <v>1021</v>
       </c>
       <c r="F1571" s="2" t="s">
-        <v>3344</v>
+        <v>3347</v>
       </c>
       <c r="G1571" s="1" t="s">
-        <v>3345</v>
+        <v>3348</v>
       </c>
       <c r="L1571" s="5" t="s">
-        <v>3346</v>
+        <v>3349</v>
       </c>
       <c r="AD1571" s="0" t="s">
         <v>33</v>
@@ -52248,13 +52263,13 @@
         <v>1022</v>
       </c>
       <c r="F1572" s="2" t="s">
-        <v>3347</v>
+        <v>3350</v>
       </c>
       <c r="G1572" s="1" t="s">
-        <v>3348</v>
+        <v>3351</v>
       </c>
       <c r="L1572" s="5" t="s">
-        <v>3349</v>
+        <v>3352</v>
       </c>
       <c r="AD1572" s="0" t="s">
         <v>33</v>
@@ -52272,13 +52287,13 @@
         <v>1023</v>
       </c>
       <c r="F1573" s="2" t="s">
-        <v>3350</v>
+        <v>3353</v>
       </c>
       <c r="G1573" s="1" t="s">
-        <v>3351</v>
+        <v>3354</v>
       </c>
       <c r="L1573" s="5" t="s">
-        <v>3352</v>
+        <v>3355</v>
       </c>
       <c r="AD1573" s="0" t="s">
         <v>33</v>
@@ -52296,13 +52311,13 @@
         <v>1024</v>
       </c>
       <c r="F1574" s="6" t="s">
-        <v>3353</v>
+        <v>3356</v>
       </c>
       <c r="G1574" s="1" t="s">
-        <v>3354</v>
+        <v>3357</v>
       </c>
       <c r="L1574" s="5" t="s">
-        <v>3355</v>
+        <v>3358</v>
       </c>
       <c r="AD1574" s="0" t="s">
         <v>33</v>
@@ -52320,10 +52335,10 @@
         <v>1025</v>
       </c>
       <c r="F1575" s="6" t="s">
-        <v>3356</v>
+        <v>3359</v>
       </c>
       <c r="G1575" s="1" t="s">
-        <v>3357</v>
+        <v>3360</v>
       </c>
       <c r="L1575" s="5" t="s">
         <v>35</v>
@@ -52344,13 +52359,13 @@
         <v>1026</v>
       </c>
       <c r="F1576" s="2" t="s">
-        <v>3358</v>
+        <v>3361</v>
       </c>
       <c r="G1576" s="1" t="s">
-        <v>3359</v>
+        <v>3362</v>
       </c>
       <c r="L1576" s="5" t="s">
-        <v>3360</v>
+        <v>3363</v>
       </c>
       <c r="AD1576" s="0" t="s">
         <v>33</v>
@@ -52368,10 +52383,10 @@
         <v>1027</v>
       </c>
       <c r="F1577" s="2" t="s">
-        <v>3361</v>
+        <v>3364</v>
       </c>
       <c r="G1577" s="1" t="s">
-        <v>3362</v>
+        <v>3365</v>
       </c>
       <c r="L1577" s="3" t="s">
         <v>35</v>
@@ -52392,13 +52407,13 @@
         <v>1028</v>
       </c>
       <c r="F1578" s="2" t="s">
-        <v>3363</v>
+        <v>3366</v>
       </c>
       <c r="G1578" s="1" t="s">
-        <v>3364</v>
+        <v>3367</v>
       </c>
       <c r="L1578" s="5" t="s">
-        <v>3365</v>
+        <v>3368</v>
       </c>
       <c r="AD1578" s="0" t="s">
         <v>33</v>
@@ -52416,10 +52431,10 @@
         <v>1029</v>
       </c>
       <c r="F1579" s="2" t="s">
-        <v>3366</v>
+        <v>3369</v>
       </c>
       <c r="G1579" s="1" t="s">
-        <v>3367</v>
+        <v>3370</v>
       </c>
       <c r="L1579" s="5" t="s">
         <v>1447</v>
@@ -52440,13 +52455,13 @@
         <v>1030</v>
       </c>
       <c r="F1580" s="2" t="s">
-        <v>3368</v>
+        <v>3371</v>
       </c>
       <c r="G1580" s="1" t="s">
-        <v>3369</v>
+        <v>3372</v>
       </c>
       <c r="L1580" s="5" t="s">
-        <v>3370</v>
+        <v>3373</v>
       </c>
       <c r="AD1580" s="0" t="s">
         <v>33</v>
@@ -52464,13 +52479,13 @@
         <v>1031</v>
       </c>
       <c r="F1581" s="2" t="s">
-        <v>3371</v>
+        <v>3374</v>
       </c>
       <c r="G1581" s="1" t="s">
-        <v>3372</v>
+        <v>3375</v>
       </c>
       <c r="L1581" s="5" t="s">
-        <v>3373</v>
+        <v>3376</v>
       </c>
       <c r="AD1581" s="0" t="s">
         <v>33</v>
@@ -52488,13 +52503,13 @@
         <v>1032</v>
       </c>
       <c r="F1582" s="2" t="s">
-        <v>3374</v>
+        <v>3377</v>
       </c>
       <c r="G1582" s="1" t="s">
-        <v>3375</v>
+        <v>3378</v>
       </c>
       <c r="L1582" s="5" t="s">
-        <v>3376</v>
+        <v>3379</v>
       </c>
       <c r="AD1582" s="0" t="s">
         <v>33</v>
@@ -52512,13 +52527,13 @@
         <v>1033</v>
       </c>
       <c r="F1583" s="2" t="s">
-        <v>3377</v>
+        <v>3380</v>
       </c>
       <c r="G1583" s="1" t="s">
-        <v>3378</v>
+        <v>3381</v>
       </c>
       <c r="L1583" s="5" t="s">
-        <v>3379</v>
+        <v>3382</v>
       </c>
       <c r="AC1583" s="9"/>
       <c r="AD1583" s="0" t="s">
@@ -52537,13 +52552,13 @@
         <v>1034</v>
       </c>
       <c r="F1584" s="2" t="s">
-        <v>3380</v>
+        <v>3383</v>
       </c>
       <c r="G1584" s="1" t="s">
-        <v>3381</v>
+        <v>3384</v>
       </c>
       <c r="L1584" s="5" t="s">
-        <v>3382</v>
+        <v>3385</v>
       </c>
       <c r="AC1584" s="9"/>
       <c r="AD1584" s="0" t="s">
@@ -52562,13 +52577,13 @@
         <v>1035</v>
       </c>
       <c r="F1585" s="2" t="s">
-        <v>3383</v>
+        <v>3386</v>
       </c>
       <c r="G1585" s="1" t="s">
-        <v>3384</v>
+        <v>3387</v>
       </c>
       <c r="L1585" s="5" t="s">
-        <v>3385</v>
+        <v>3388</v>
       </c>
       <c r="AD1585" s="0" t="s">
         <v>33</v>
@@ -52586,13 +52601,13 @@
         <v>1036</v>
       </c>
       <c r="F1586" s="2" t="s">
-        <v>3386</v>
+        <v>3389</v>
       </c>
       <c r="G1586" s="1" t="s">
-        <v>3387</v>
+        <v>3390</v>
       </c>
       <c r="L1586" s="5" t="s">
-        <v>3388</v>
+        <v>3391</v>
       </c>
       <c r="AD1586" s="0" t="s">
         <v>33</v>
@@ -52610,13 +52625,13 @@
         <v>1037</v>
       </c>
       <c r="F1587" s="2" t="s">
-        <v>3389</v>
+        <v>3392</v>
       </c>
       <c r="G1587" s="1" t="s">
-        <v>3390</v>
+        <v>3393</v>
       </c>
       <c r="L1587" s="5" t="s">
-        <v>3391</v>
+        <v>3394</v>
       </c>
       <c r="AD1587" s="0" t="s">
         <v>33</v>
@@ -52634,13 +52649,13 @@
         <v>1038</v>
       </c>
       <c r="F1588" s="2" t="s">
-        <v>3392</v>
+        <v>3395</v>
       </c>
       <c r="G1588" s="1" t="s">
-        <v>3393</v>
+        <v>3396</v>
       </c>
       <c r="L1588" s="5" t="s">
-        <v>3394</v>
+        <v>3397</v>
       </c>
       <c r="AD1588" s="0" t="s">
         <v>33</v>
@@ -52658,13 +52673,13 @@
         <v>1039</v>
       </c>
       <c r="F1589" s="2" t="s">
-        <v>3395</v>
+        <v>3398</v>
       </c>
       <c r="G1589" s="1" t="s">
-        <v>3396</v>
+        <v>3399</v>
       </c>
       <c r="L1589" s="5" t="s">
-        <v>3397</v>
+        <v>3400</v>
       </c>
       <c r="AC1589" s="9"/>
       <c r="AD1589" s="0" t="s">
@@ -52683,13 +52698,13 @@
         <v>1040</v>
       </c>
       <c r="F1590" s="2" t="s">
-        <v>3398</v>
+        <v>3401</v>
       </c>
       <c r="G1590" s="1" t="s">
-        <v>3399</v>
+        <v>3402</v>
       </c>
       <c r="L1590" s="5" t="s">
-        <v>3400</v>
+        <v>3403</v>
       </c>
       <c r="AD1590" s="0" t="s">
         <v>33</v>
@@ -52707,13 +52722,13 @@
         <v>1041</v>
       </c>
       <c r="F1591" s="2" t="s">
-        <v>3401</v>
+        <v>3404</v>
       </c>
       <c r="G1591" s="1" t="s">
-        <v>3402</v>
+        <v>3405</v>
       </c>
       <c r="L1591" s="5" t="s">
-        <v>3403</v>
+        <v>3406</v>
       </c>
       <c r="AD1591" s="0" t="s">
         <v>33</v>
@@ -52731,13 +52746,13 @@
         <v>1042</v>
       </c>
       <c r="F1592" s="2" t="s">
-        <v>3404</v>
+        <v>3407</v>
       </c>
       <c r="G1592" s="1" t="s">
-        <v>3405</v>
+        <v>3408</v>
       </c>
       <c r="L1592" s="5" t="s">
-        <v>3406</v>
+        <v>3409</v>
       </c>
       <c r="AD1592" s="0" t="s">
         <v>33</v>
@@ -52755,16 +52770,16 @@
         <v>1043</v>
       </c>
       <c r="F1593" s="2" t="s">
-        <v>3407</v>
+        <v>3410</v>
       </c>
       <c r="G1593" s="1" t="s">
-        <v>3408</v>
+        <v>3411</v>
       </c>
       <c r="H1593" s="1" t="s">
         <v>2148</v>
       </c>
       <c r="L1593" s="5" t="s">
-        <v>3409</v>
+        <v>3412</v>
       </c>
       <c r="AD1593" s="0" t="s">
         <v>33</v>
@@ -52804,16 +52819,16 @@
         <v>1044</v>
       </c>
       <c r="F1595" s="2" t="s">
-        <v>3410</v>
+        <v>3413</v>
       </c>
       <c r="G1595" s="1" t="s">
-        <v>3411</v>
+        <v>3414</v>
       </c>
       <c r="H1595" s="1" t="s">
         <v>877</v>
       </c>
       <c r="L1595" s="5" t="s">
-        <v>3412</v>
+        <v>3415</v>
       </c>
       <c r="AD1595" s="0" t="s">
         <v>33</v>
@@ -52853,16 +52868,16 @@
         <v>1045</v>
       </c>
       <c r="F1597" s="2" t="s">
-        <v>3413</v>
+        <v>3416</v>
       </c>
       <c r="G1597" s="1" t="s">
-        <v>3414</v>
+        <v>3417</v>
       </c>
       <c r="H1597" s="1" t="s">
         <v>877</v>
       </c>
       <c r="L1597" s="5" t="s">
-        <v>3415</v>
+        <v>3418</v>
       </c>
       <c r="AD1597" s="0" t="s">
         <v>33</v>
@@ -52904,13 +52919,13 @@
         <v>1046</v>
       </c>
       <c r="F1599" s="2" t="s">
-        <v>3416</v>
+        <v>3419</v>
       </c>
       <c r="G1599" s="1" t="s">
-        <v>3417</v>
+        <v>3420</v>
       </c>
       <c r="L1599" s="5" t="s">
-        <v>3418</v>
+        <v>3421</v>
       </c>
       <c r="M1599" s="0"/>
       <c r="N1599" s="0"/>
@@ -52930,13 +52945,13 @@
         <v>1047</v>
       </c>
       <c r="F1600" s="2" t="s">
-        <v>3419</v>
+        <v>3422</v>
       </c>
       <c r="G1600" s="1" t="s">
-        <v>3420</v>
+        <v>3423</v>
       </c>
       <c r="L1600" s="5" t="s">
-        <v>3421</v>
+        <v>3424</v>
       </c>
       <c r="AD1600" s="0" t="s">
         <v>33</v>
@@ -52954,16 +52969,16 @@
         <v>1048</v>
       </c>
       <c r="F1601" s="2" t="s">
-        <v>3422</v>
+        <v>3425</v>
       </c>
       <c r="G1601" s="1" t="s">
-        <v>3423</v>
+        <v>3426</v>
       </c>
       <c r="H1601" s="1" t="s">
         <v>2148</v>
       </c>
       <c r="L1601" s="5" t="s">
-        <v>3424</v>
+        <v>3427</v>
       </c>
       <c r="AC1601" s="9"/>
       <c r="AD1601" s="0" t="s">
@@ -53004,16 +53019,16 @@
         <v>1049</v>
       </c>
       <c r="F1603" s="2" t="s">
-        <v>3425</v>
+        <v>3428</v>
       </c>
       <c r="G1603" s="1" t="s">
-        <v>3426</v>
+        <v>3429</v>
       </c>
       <c r="H1603" s="1" t="s">
         <v>877</v>
       </c>
       <c r="L1603" s="5" t="s">
-        <v>3427</v>
+        <v>3430</v>
       </c>
       <c r="AC1603" s="9"/>
       <c r="AD1603" s="0" t="s">
@@ -53054,16 +53069,16 @@
         <v>1050</v>
       </c>
       <c r="F1605" s="6" t="s">
-        <v>3428</v>
+        <v>3431</v>
       </c>
       <c r="G1605" s="1" t="s">
-        <v>3429</v>
+        <v>3432</v>
       </c>
       <c r="H1605" s="1" t="s">
         <v>2148</v>
       </c>
       <c r="L1605" s="5" t="s">
-        <v>3430</v>
+        <v>3433</v>
       </c>
       <c r="AC1605" s="9"/>
       <c r="AD1605" s="0" t="s">
@@ -53105,16 +53120,16 @@
         <v>1051</v>
       </c>
       <c r="F1607" s="6" t="s">
-        <v>3431</v>
+        <v>3434</v>
       </c>
       <c r="G1607" s="1" t="s">
-        <v>3432</v>
+        <v>3435</v>
       </c>
       <c r="H1607" s="1" t="s">
         <v>2148</v>
       </c>
       <c r="L1607" s="5" t="s">
-        <v>3433</v>
+        <v>3436</v>
       </c>
       <c r="AD1607" s="0" t="s">
         <v>33</v>
@@ -53155,13 +53170,13 @@
         <v>1052</v>
       </c>
       <c r="F1609" s="6" t="s">
-        <v>3434</v>
+        <v>3437</v>
       </c>
       <c r="G1609" s="1" t="s">
-        <v>3435</v>
+        <v>3438</v>
       </c>
       <c r="L1609" s="5" t="s">
-        <v>3436</v>
+        <v>3439</v>
       </c>
       <c r="AD1609" s="0" t="s">
         <v>33</v>
@@ -53179,13 +53194,13 @@
         <v>1053</v>
       </c>
       <c r="F1610" s="6" t="s">
-        <v>3437</v>
+        <v>3440</v>
       </c>
       <c r="G1610" s="1" t="s">
-        <v>3438</v>
+        <v>3441</v>
       </c>
       <c r="L1610" s="5" t="s">
-        <v>3439</v>
+        <v>3442</v>
       </c>
       <c r="AD1610" s="0" t="s">
         <v>33</v>
@@ -53203,13 +53218,13 @@
         <v>1054</v>
       </c>
       <c r="F1611" s="6" t="s">
-        <v>3440</v>
+        <v>3443</v>
       </c>
       <c r="G1611" s="1" t="s">
-        <v>3441</v>
+        <v>3444</v>
       </c>
       <c r="L1611" s="5" t="s">
-        <v>3442</v>
+        <v>3445</v>
       </c>
       <c r="AD1611" s="0" t="s">
         <v>33</v>
@@ -53227,13 +53242,13 @@
         <v>1055</v>
       </c>
       <c r="F1612" s="6" t="s">
-        <v>3443</v>
+        <v>3446</v>
       </c>
       <c r="G1612" s="1" t="s">
-        <v>3444</v>
+        <v>3447</v>
       </c>
       <c r="L1612" s="5" t="s">
-        <v>3442</v>
+        <v>3445</v>
       </c>
       <c r="AD1612" s="0" t="s">
         <v>33</v>
@@ -53251,13 +53266,13 @@
         <v>1056</v>
       </c>
       <c r="F1613" s="6" t="s">
-        <v>3445</v>
+        <v>3448</v>
       </c>
       <c r="G1613" s="1" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="L1613" s="5" t="s">
-        <v>3447</v>
+        <v>3450</v>
       </c>
       <c r="AD1613" s="0" t="s">
         <v>33</v>
@@ -53275,13 +53290,13 @@
         <v>1057</v>
       </c>
       <c r="F1614" s="6" t="s">
-        <v>3448</v>
+        <v>3451</v>
       </c>
       <c r="G1614" s="1" t="s">
-        <v>3449</v>
+        <v>3452</v>
       </c>
       <c r="L1614" s="5" t="s">
-        <v>3450</v>
+        <v>3453</v>
       </c>
       <c r="AD1614" s="0" t="s">
         <v>33</v>
@@ -53299,13 +53314,13 @@
         <v>1058</v>
       </c>
       <c r="F1615" s="6" t="s">
-        <v>3451</v>
+        <v>3454</v>
       </c>
       <c r="G1615" s="1" t="s">
-        <v>3452</v>
+        <v>3455</v>
       </c>
       <c r="L1615" s="5" t="s">
-        <v>3453</v>
+        <v>3456</v>
       </c>
       <c r="AD1615" s="0" t="s">
         <v>33</v>
@@ -53323,13 +53338,13 @@
         <v>1059</v>
       </c>
       <c r="F1616" s="6" t="s">
-        <v>3454</v>
+        <v>3457</v>
       </c>
       <c r="G1616" s="1" t="s">
-        <v>3455</v>
+        <v>3458</v>
       </c>
       <c r="L1616" s="5" t="s">
-        <v>3456</v>
+        <v>3459</v>
       </c>
       <c r="AD1616" s="0" t="s">
         <v>33</v>
@@ -53347,13 +53362,13 @@
         <v>1060</v>
       </c>
       <c r="F1617" s="6" t="s">
-        <v>3457</v>
+        <v>3460</v>
       </c>
       <c r="G1617" s="1" t="s">
-        <v>3458</v>
+        <v>3461</v>
       </c>
       <c r="L1617" s="5" t="s">
-        <v>3459</v>
+        <v>3462</v>
       </c>
       <c r="AD1617" s="0" t="s">
         <v>33</v>
@@ -53371,13 +53386,13 @@
         <v>1061</v>
       </c>
       <c r="F1618" s="6" t="s">
-        <v>3460</v>
+        <v>3463</v>
       </c>
       <c r="G1618" s="1" t="s">
-        <v>3461</v>
+        <v>3464</v>
       </c>
       <c r="L1618" s="5" t="s">
-        <v>3462</v>
+        <v>3465</v>
       </c>
       <c r="AD1618" s="0" t="s">
         <v>33</v>
@@ -53395,13 +53410,13 @@
         <v>1062</v>
       </c>
       <c r="F1619" s="6" t="s">
-        <v>3463</v>
+        <v>3466</v>
       </c>
       <c r="G1619" s="1" t="s">
-        <v>3464</v>
+        <v>3467</v>
       </c>
       <c r="L1619" s="5" t="s">
-        <v>3465</v>
+        <v>3468</v>
       </c>
       <c r="AD1619" s="0" t="s">
         <v>33</v>
@@ -53419,10 +53434,10 @@
         <v>1063</v>
       </c>
       <c r="F1620" s="2" t="s">
-        <v>3466</v>
+        <v>3469</v>
       </c>
       <c r="G1620" s="1" t="s">
-        <v>3467</v>
+        <v>3470</v>
       </c>
       <c r="L1620" s="0" t="s">
         <v>35</v>
@@ -53443,13 +53458,13 @@
         <v>1064</v>
       </c>
       <c r="F1621" s="6" t="s">
-        <v>3468</v>
+        <v>3471</v>
       </c>
       <c r="G1621" s="1" t="s">
-        <v>3469</v>
+        <v>3472</v>
       </c>
       <c r="L1621" s="5" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="AD1621" s="0" t="s">
         <v>33</v>
@@ -53467,13 +53482,13 @@
         <v>1065</v>
       </c>
       <c r="F1622" s="6" t="s">
-        <v>3471</v>
+        <v>3474</v>
       </c>
       <c r="G1622" s="1" t="s">
-        <v>3472</v>
+        <v>3475</v>
       </c>
       <c r="L1622" s="5" t="s">
-        <v>3473</v>
+        <v>3476</v>
       </c>
       <c r="AD1622" s="0" t="s">
         <v>33</v>
@@ -53491,10 +53506,10 @@
         <v>1066</v>
       </c>
       <c r="F1623" s="6" t="s">
-        <v>3474</v>
+        <v>3477</v>
       </c>
       <c r="G1623" s="1" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="L1623" s="5" t="s">
         <v>35</v>
@@ -53515,13 +53530,13 @@
         <v>1067</v>
       </c>
       <c r="F1624" s="6" t="s">
-        <v>3476</v>
+        <v>3479</v>
       </c>
       <c r="G1624" s="1" t="s">
-        <v>3477</v>
+        <v>3480</v>
       </c>
       <c r="L1624" s="5" t="s">
-        <v>3478</v>
+        <v>3481</v>
       </c>
       <c r="AD1624" s="0" t="s">
         <v>33</v>
@@ -53539,16 +53554,16 @@
         <v>1068</v>
       </c>
       <c r="F1625" s="6" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G1625" s="1" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="H1625" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1625" s="5" t="s">
-        <v>3481</v>
+        <v>3484</v>
       </c>
       <c r="AD1625" s="0" t="s">
         <v>33</v>
@@ -53573,7 +53588,7 @@
         <v>8</v>
       </c>
       <c r="L1626" s="5" t="s">
-        <v>3482</v>
+        <v>3485</v>
       </c>
       <c r="AD1626" s="0" t="s">
         <v>33</v>
@@ -53593,13 +53608,13 @@
         <v>1069</v>
       </c>
       <c r="F1627" s="6" t="s">
-        <v>3483</v>
+        <v>3486</v>
       </c>
       <c r="G1627" s="1" t="s">
-        <v>3484</v>
+        <v>3487</v>
       </c>
       <c r="L1627" s="5" t="s">
-        <v>3478</v>
+        <v>3481</v>
       </c>
       <c r="AD1627" s="0" t="s">
         <v>33</v>
@@ -53617,13 +53632,13 @@
         <v>1070</v>
       </c>
       <c r="F1628" s="6" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="G1628" s="1" t="s">
-        <v>3486</v>
+        <v>3489</v>
       </c>
       <c r="L1628" s="5" t="s">
-        <v>3487</v>
+        <v>3490</v>
       </c>
       <c r="AD1628" s="0" t="s">
         <v>33</v>
@@ -53641,13 +53656,13 @@
         <v>1071</v>
       </c>
       <c r="F1629" s="6" t="s">
-        <v>3488</v>
+        <v>3491</v>
       </c>
       <c r="G1629" s="1" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="L1629" s="5" t="s">
-        <v>3490</v>
+        <v>3493</v>
       </c>
       <c r="AD1629" s="0" t="s">
         <v>33</v>
@@ -53665,13 +53680,13 @@
         <v>1072</v>
       </c>
       <c r="F1630" s="6" t="s">
-        <v>3491</v>
+        <v>3494</v>
       </c>
       <c r="G1630" s="1" t="s">
-        <v>3492</v>
+        <v>3495</v>
       </c>
       <c r="L1630" s="5" t="s">
-        <v>3493</v>
+        <v>3496</v>
       </c>
       <c r="AD1630" s="0" t="s">
         <v>33</v>
@@ -53689,13 +53704,13 @@
         <v>1073</v>
       </c>
       <c r="F1631" s="6" t="s">
-        <v>3494</v>
+        <v>3497</v>
       </c>
       <c r="G1631" s="1" t="s">
-        <v>3495</v>
+        <v>3498</v>
       </c>
       <c r="L1631" s="5" t="s">
-        <v>3496</v>
+        <v>3499</v>
       </c>
       <c r="AD1631" s="0" t="s">
         <v>33</v>
@@ -53713,16 +53728,16 @@
         <v>1074</v>
       </c>
       <c r="F1632" s="6" t="s">
-        <v>3497</v>
+        <v>3500</v>
       </c>
       <c r="G1632" s="1" t="s">
-        <v>3498</v>
+        <v>3501</v>
       </c>
       <c r="H1632" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1632" s="5" t="s">
-        <v>3499</v>
+        <v>3502</v>
       </c>
       <c r="AD1632" s="0" t="s">
         <v>33</v>
@@ -53747,7 +53762,7 @@
         <v>8</v>
       </c>
       <c r="L1633" s="5" t="s">
-        <v>3500</v>
+        <v>3503</v>
       </c>
       <c r="AD1633" s="0" t="s">
         <v>33</v>
@@ -53765,16 +53780,16 @@
         <v>1075</v>
       </c>
       <c r="F1634" s="6" t="s">
-        <v>3501</v>
+        <v>3504</v>
       </c>
       <c r="G1634" s="1" t="s">
-        <v>3502</v>
+        <v>3505</v>
       </c>
       <c r="H1634" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1634" s="5" t="s">
-        <v>3503</v>
+        <v>3506</v>
       </c>
       <c r="AD1634" s="0" t="s">
         <v>33</v>
@@ -53799,7 +53814,7 @@
         <v>8</v>
       </c>
       <c r="L1635" s="5" t="s">
-        <v>3504</v>
+        <v>3507</v>
       </c>
       <c r="AD1635" s="0" t="s">
         <v>33</v>
@@ -53817,16 +53832,16 @@
         <v>1076</v>
       </c>
       <c r="F1636" s="6" t="s">
-        <v>3505</v>
+        <v>3508</v>
       </c>
       <c r="G1636" s="1" t="s">
-        <v>3506</v>
+        <v>3509</v>
       </c>
       <c r="H1636" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1636" s="5" t="s">
-        <v>3507</v>
+        <v>3510</v>
       </c>
       <c r="AD1636" s="0" t="s">
         <v>33</v>
@@ -53851,7 +53866,7 @@
         <v>8</v>
       </c>
       <c r="L1637" s="5" t="s">
-        <v>3508</v>
+        <v>3511</v>
       </c>
       <c r="AD1637" s="0" t="s">
         <v>33</v>
@@ -53869,16 +53884,16 @@
         <v>1077</v>
       </c>
       <c r="F1638" s="6" t="s">
-        <v>3509</v>
+        <v>3512</v>
       </c>
       <c r="G1638" s="1" t="s">
-        <v>3510</v>
+        <v>3513</v>
       </c>
       <c r="H1638" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1638" s="5" t="s">
-        <v>3511</v>
+        <v>3514</v>
       </c>
       <c r="AD1638" s="0" t="s">
         <v>33</v>
@@ -53903,7 +53918,7 @@
         <v>8</v>
       </c>
       <c r="L1639" s="5" t="s">
-        <v>3512</v>
+        <v>3515</v>
       </c>
       <c r="AD1639" s="0" t="s">
         <v>33</v>
@@ -53921,16 +53936,16 @@
         <v>1078</v>
       </c>
       <c r="F1640" s="6" t="s">
-        <v>3513</v>
+        <v>3516</v>
       </c>
       <c r="G1640" s="1" t="s">
-        <v>3514</v>
+        <v>3517</v>
       </c>
       <c r="H1640" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1640" s="5" t="s">
-        <v>3515</v>
+        <v>3518</v>
       </c>
       <c r="AD1640" s="0" t="s">
         <v>33</v>
@@ -53955,7 +53970,7 @@
         <v>8</v>
       </c>
       <c r="L1641" s="5" t="s">
-        <v>3516</v>
+        <v>3519</v>
       </c>
       <c r="AD1641" s="0" t="s">
         <v>33</v>
@@ -53973,13 +53988,13 @@
         <v>1079</v>
       </c>
       <c r="F1642" s="6" t="s">
-        <v>3517</v>
+        <v>3520</v>
       </c>
       <c r="G1642" s="1" t="s">
-        <v>3518</v>
+        <v>3521</v>
       </c>
       <c r="L1642" s="5" t="s">
-        <v>3519</v>
+        <v>3522</v>
       </c>
       <c r="AC1642" s="9"/>
       <c r="AD1642" s="0" t="s">
@@ -53998,13 +54013,13 @@
         <v>1080</v>
       </c>
       <c r="F1643" s="6" t="s">
-        <v>3520</v>
+        <v>3523</v>
       </c>
       <c r="G1643" s="1" t="s">
-        <v>3521</v>
+        <v>3524</v>
       </c>
       <c r="L1643" s="5" t="s">
-        <v>3522</v>
+        <v>3525</v>
       </c>
       <c r="AD1643" s="0" t="s">
         <v>33</v>
@@ -54022,13 +54037,13 @@
         <v>1081</v>
       </c>
       <c r="F1644" s="6" t="s">
-        <v>3523</v>
+        <v>3526</v>
       </c>
       <c r="G1644" s="1" t="s">
-        <v>3518</v>
+        <v>3521</v>
       </c>
       <c r="L1644" s="5" t="s">
-        <v>3524</v>
+        <v>3527</v>
       </c>
       <c r="AD1644" s="0" t="s">
         <v>33</v>
@@ -54046,10 +54061,10 @@
         <v>1082</v>
       </c>
       <c r="F1645" s="6" t="s">
-        <v>3525</v>
+        <v>3528</v>
       </c>
       <c r="G1645" s="1" t="s">
-        <v>3526</v>
+        <v>3529</v>
       </c>
       <c r="H1645" s="1" t="s">
         <v>2148</v>
@@ -54094,13 +54109,13 @@
         <v>1083</v>
       </c>
       <c r="F1647" s="6" t="s">
-        <v>3527</v>
+        <v>3530</v>
       </c>
       <c r="G1647" s="1" t="s">
-        <v>3528</v>
+        <v>3531</v>
       </c>
       <c r="L1647" s="5" t="s">
-        <v>3529</v>
+        <v>3532</v>
       </c>
       <c r="AC1647" s="9"/>
       <c r="AD1647" s="0" t="s">
@@ -54121,13 +54136,13 @@
         <v>1084</v>
       </c>
       <c r="F1648" s="6" t="s">
-        <v>3530</v>
+        <v>3533</v>
       </c>
       <c r="G1648" s="1" t="s">
-        <v>3531</v>
+        <v>3534</v>
       </c>
       <c r="L1648" s="5" t="s">
-        <v>3478</v>
+        <v>3481</v>
       </c>
       <c r="AC1648" s="9"/>
       <c r="AD1648" s="0" t="s">
@@ -54146,13 +54161,13 @@
         <v>1085</v>
       </c>
       <c r="F1649" s="6" t="s">
-        <v>3532</v>
+        <v>3535</v>
       </c>
       <c r="G1649" s="1" t="s">
-        <v>3533</v>
+        <v>3536</v>
       </c>
       <c r="L1649" s="5" t="s">
-        <v>3534</v>
+        <v>3537</v>
       </c>
       <c r="AD1649" s="0" t="s">
         <v>33</v>
@@ -54170,13 +54185,13 @@
         <v>1086</v>
       </c>
       <c r="F1650" s="6" t="s">
-        <v>3535</v>
+        <v>3538</v>
       </c>
       <c r="G1650" s="1" t="s">
-        <v>3536</v>
+        <v>3539</v>
       </c>
       <c r="L1650" s="5" t="s">
-        <v>3537</v>
+        <v>3540</v>
       </c>
       <c r="AD1650" s="0" t="s">
         <v>33</v>
@@ -54194,16 +54209,16 @@
         <v>1087</v>
       </c>
       <c r="F1651" s="6" t="s">
-        <v>3538</v>
+        <v>3541</v>
       </c>
       <c r="G1651" s="1" t="s">
-        <v>3539</v>
+        <v>3542</v>
       </c>
       <c r="H1651" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1651" s="5" t="s">
-        <v>3540</v>
+        <v>3543</v>
       </c>
       <c r="AD1651" s="0" t="s">
         <v>33</v>
@@ -54228,7 +54243,7 @@
         <v>8</v>
       </c>
       <c r="L1652" s="5" t="s">
-        <v>3541</v>
+        <v>3544</v>
       </c>
       <c r="AD1652" s="0" t="s">
         <v>33</v>
@@ -54246,10 +54261,10 @@
         <v>1088</v>
       </c>
       <c r="F1653" s="6" t="s">
-        <v>3542</v>
+        <v>3545</v>
       </c>
       <c r="G1653" s="1" t="s">
-        <v>3543</v>
+        <v>3546</v>
       </c>
       <c r="H1653" s="1" t="s">
         <v>49</v>
@@ -54298,16 +54313,16 @@
         <v>1089</v>
       </c>
       <c r="F1655" s="6" t="s">
-        <v>3544</v>
+        <v>3547</v>
       </c>
       <c r="G1655" s="1" t="s">
-        <v>3545</v>
+        <v>3548</v>
       </c>
       <c r="H1655" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1655" s="5" t="s">
-        <v>3546</v>
+        <v>3549</v>
       </c>
       <c r="AD1655" s="0" t="s">
         <v>33</v>
@@ -54332,7 +54347,7 @@
         <v>8</v>
       </c>
       <c r="L1656" s="5" t="s">
-        <v>3547</v>
+        <v>3550</v>
       </c>
       <c r="AD1656" s="0" t="s">
         <v>33</v>
@@ -54350,16 +54365,16 @@
         <v>1090</v>
       </c>
       <c r="F1657" s="6" t="s">
-        <v>3548</v>
+        <v>3551</v>
       </c>
       <c r="G1657" s="1" t="s">
-        <v>3549</v>
+        <v>3552</v>
       </c>
       <c r="H1657" s="1" t="s">
         <v>526</v>
       </c>
       <c r="L1657" s="5" t="s">
-        <v>3550</v>
+        <v>3553</v>
       </c>
       <c r="AD1657" s="0" t="s">
         <v>33</v>
@@ -54384,7 +54399,7 @@
         <v>8</v>
       </c>
       <c r="L1658" s="5" t="s">
-        <v>3551</v>
+        <v>3554</v>
       </c>
       <c r="AD1658" s="0" t="s">
         <v>33</v>
@@ -54409,7 +54424,7 @@
         <v>8</v>
       </c>
       <c r="L1659" s="5" t="s">
-        <v>3552</v>
+        <v>3555</v>
       </c>
       <c r="AD1659" s="0" t="s">
         <v>33</v>
@@ -54427,16 +54442,16 @@
         <v>1091</v>
       </c>
       <c r="F1660" s="6" t="s">
-        <v>3553</v>
+        <v>3556</v>
       </c>
       <c r="G1660" s="1" t="s">
-        <v>3554</v>
+        <v>3557</v>
       </c>
       <c r="H1660" s="1" t="s">
         <v>526</v>
       </c>
       <c r="L1660" s="5" t="s">
-        <v>3555</v>
+        <v>3558</v>
       </c>
       <c r="AD1660" s="0" t="s">
         <v>33</v>
@@ -54461,7 +54476,7 @@
         <v>8</v>
       </c>
       <c r="L1661" s="5" t="s">
-        <v>3556</v>
+        <v>3559</v>
       </c>
       <c r="AD1661" s="0" t="s">
         <v>33</v>
@@ -54486,7 +54501,7 @@
         <v>8</v>
       </c>
       <c r="L1662" s="5" t="s">
-        <v>3557</v>
+        <v>3560</v>
       </c>
       <c r="AD1662" s="0" t="s">
         <v>33</v>
@@ -54504,16 +54519,16 @@
         <v>1092</v>
       </c>
       <c r="F1663" s="6" t="s">
-        <v>3558</v>
+        <v>3561</v>
       </c>
       <c r="G1663" s="1" t="s">
-        <v>3559</v>
+        <v>3562</v>
       </c>
       <c r="H1663" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1663" s="5" t="s">
-        <v>3560</v>
+        <v>3563</v>
       </c>
       <c r="AD1663" s="0" t="s">
         <v>33</v>
@@ -54538,7 +54553,7 @@
         <v>8</v>
       </c>
       <c r="L1664" s="5" t="s">
-        <v>3561</v>
+        <v>3564</v>
       </c>
       <c r="AD1664" s="0" t="s">
         <v>33</v>
@@ -54556,16 +54571,16 @@
         <v>1093</v>
       </c>
       <c r="F1665" s="6" t="s">
-        <v>3562</v>
+        <v>3565</v>
       </c>
       <c r="G1665" s="1" t="s">
-        <v>3563</v>
+        <v>3566</v>
       </c>
       <c r="H1665" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1665" s="5" t="s">
-        <v>3564</v>
+        <v>3567</v>
       </c>
       <c r="AD1665" s="0" t="s">
         <v>33</v>
@@ -54590,7 +54605,7 @@
         <v>8</v>
       </c>
       <c r="L1666" s="5" t="s">
-        <v>3565</v>
+        <v>3568</v>
       </c>
       <c r="AD1666" s="0" t="s">
         <v>33</v>
@@ -54608,16 +54623,16 @@
         <v>1094</v>
       </c>
       <c r="F1667" s="6" t="s">
-        <v>3566</v>
+        <v>3569</v>
       </c>
       <c r="G1667" s="1" t="s">
-        <v>3567</v>
+        <v>3570</v>
       </c>
       <c r="H1667" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1667" s="5" t="s">
-        <v>3568</v>
+        <v>3571</v>
       </c>
       <c r="AD1667" s="0" t="s">
         <v>33</v>
@@ -54642,7 +54657,7 @@
         <v>8</v>
       </c>
       <c r="L1668" s="5" t="s">
-        <v>3569</v>
+        <v>3572</v>
       </c>
       <c r="AD1668" s="0" t="s">
         <v>33</v>
@@ -54660,16 +54675,16 @@
         <v>1095</v>
       </c>
       <c r="F1669" s="6" t="s">
-        <v>3570</v>
+        <v>3573</v>
       </c>
       <c r="G1669" s="1" t="s">
-        <v>3571</v>
+        <v>3574</v>
       </c>
       <c r="H1669" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1669" s="5" t="s">
-        <v>3572</v>
+        <v>3575</v>
       </c>
       <c r="AC1669" s="9"/>
       <c r="AD1669" s="0" t="s">
@@ -54695,7 +54710,7 @@
         <v>8</v>
       </c>
       <c r="L1670" s="5" t="s">
-        <v>3573</v>
+        <v>3576</v>
       </c>
       <c r="AD1670" s="0" t="s">
         <v>33</v>
@@ -54713,16 +54728,16 @@
         <v>1096</v>
       </c>
       <c r="F1671" s="6" t="s">
-        <v>3574</v>
+        <v>3577</v>
       </c>
       <c r="G1671" s="1" t="s">
-        <v>3575</v>
+        <v>3578</v>
       </c>
       <c r="H1671" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1671" s="5" t="s">
-        <v>3576</v>
+        <v>3579</v>
       </c>
       <c r="AD1671" s="0" t="s">
         <v>33</v>
@@ -54747,7 +54762,7 @@
         <v>8</v>
       </c>
       <c r="L1672" s="5" t="s">
-        <v>3577</v>
+        <v>3580</v>
       </c>
       <c r="AD1672" s="0" t="s">
         <v>33</v>
@@ -54765,16 +54780,16 @@
         <v>1097</v>
       </c>
       <c r="F1673" s="6" t="s">
-        <v>3578</v>
+        <v>3581</v>
       </c>
       <c r="G1673" s="1" t="s">
-        <v>3579</v>
+        <v>3582</v>
       </c>
       <c r="H1673" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1673" s="5" t="s">
-        <v>3580</v>
+        <v>3583</v>
       </c>
       <c r="AD1673" s="0" t="s">
         <v>33</v>
@@ -54799,7 +54814,7 @@
         <v>8</v>
       </c>
       <c r="L1674" s="5" t="s">
-        <v>3581</v>
+        <v>3584</v>
       </c>
       <c r="AD1674" s="0" t="s">
         <v>33</v>
@@ -54817,16 +54832,16 @@
         <v>1098</v>
       </c>
       <c r="F1675" s="6" t="s">
-        <v>3582</v>
+        <v>3585</v>
       </c>
       <c r="G1675" s="1" t="s">
-        <v>3583</v>
+        <v>3586</v>
       </c>
       <c r="H1675" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1675" s="5" t="s">
-        <v>3584</v>
+        <v>3587</v>
       </c>
       <c r="AD1675" s="0" t="s">
         <v>33</v>
@@ -54851,7 +54866,7 @@
         <v>8</v>
       </c>
       <c r="L1676" s="5" t="s">
-        <v>3585</v>
+        <v>3588</v>
       </c>
       <c r="AD1676" s="0" t="s">
         <v>33</v>
@@ -54869,13 +54884,13 @@
         <v>1099</v>
       </c>
       <c r="F1677" s="6" t="s">
-        <v>3586</v>
+        <v>3589</v>
       </c>
       <c r="G1677" s="1" t="s">
-        <v>3587</v>
+        <v>3590</v>
       </c>
       <c r="L1677" s="5" t="s">
-        <v>3588</v>
+        <v>3591</v>
       </c>
       <c r="AD1677" s="0" t="s">
         <v>33</v>
@@ -54893,13 +54908,13 @@
         <v>1100</v>
       </c>
       <c r="F1678" s="6" t="s">
-        <v>3589</v>
+        <v>3592</v>
       </c>
       <c r="G1678" s="1" t="s">
-        <v>3590</v>
+        <v>3593</v>
       </c>
       <c r="L1678" s="5" t="s">
-        <v>3591</v>
+        <v>3594</v>
       </c>
       <c r="AC1678" s="9"/>
       <c r="AD1678" s="0" t="s">
@@ -54918,16 +54933,16 @@
         <v>1101</v>
       </c>
       <c r="F1679" s="6" t="s">
-        <v>3592</v>
+        <v>3595</v>
       </c>
       <c r="G1679" s="1" t="s">
-        <v>3593</v>
+        <v>3596</v>
       </c>
       <c r="H1679" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1679" s="5" t="s">
-        <v>3594</v>
+        <v>3597</v>
       </c>
       <c r="AD1679" s="0" t="s">
         <v>33</v>
@@ -54952,7 +54967,7 @@
         <v>8</v>
       </c>
       <c r="L1680" s="5" t="s">
-        <v>3595</v>
+        <v>3598</v>
       </c>
       <c r="AD1680" s="0" t="s">
         <v>33</v>
@@ -54970,16 +54985,16 @@
         <v>1103</v>
       </c>
       <c r="F1681" s="6" t="s">
-        <v>3596</v>
+        <v>3599</v>
       </c>
       <c r="G1681" s="1" t="s">
-        <v>3597</v>
+        <v>3600</v>
       </c>
       <c r="H1681" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1681" s="5" t="s">
-        <v>3598</v>
+        <v>3601</v>
       </c>
       <c r="AC1681" s="9"/>
       <c r="AD1681" s="0" t="s">
@@ -55005,7 +55020,7 @@
         <v>8</v>
       </c>
       <c r="L1682" s="5" t="s">
-        <v>3599</v>
+        <v>3602</v>
       </c>
       <c r="AD1682" s="0" t="s">
         <v>33</v>
@@ -55023,10 +55038,10 @@
         <v>1104</v>
       </c>
       <c r="F1683" s="6" t="s">
-        <v>3600</v>
+        <v>3603</v>
       </c>
       <c r="G1683" s="1" t="s">
-        <v>3601</v>
+        <v>3604</v>
       </c>
       <c r="H1683" s="1" t="s">
         <v>49</v>
@@ -55075,16 +55090,16 @@
         <v>1105</v>
       </c>
       <c r="F1685" s="6" t="s">
-        <v>3602</v>
+        <v>3605</v>
       </c>
       <c r="G1685" s="1" t="s">
-        <v>3603</v>
+        <v>3606</v>
       </c>
       <c r="H1685" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1685" s="5" t="s">
-        <v>3604</v>
+        <v>3607</v>
       </c>
       <c r="AD1685" s="0" t="s">
         <v>33</v>
@@ -55109,7 +55124,7 @@
         <v>8</v>
       </c>
       <c r="L1686" s="5" t="s">
-        <v>3605</v>
+        <v>3608</v>
       </c>
       <c r="AD1686" s="0" t="s">
         <v>33</v>
@@ -55127,16 +55142,16 @@
         <v>1106</v>
       </c>
       <c r="F1687" s="6" t="s">
-        <v>3606</v>
+        <v>3609</v>
       </c>
       <c r="G1687" s="1" t="s">
-        <v>3607</v>
+        <v>3610</v>
       </c>
       <c r="H1687" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1687" s="5" t="s">
-        <v>3608</v>
+        <v>3611</v>
       </c>
       <c r="AD1687" s="0" t="s">
         <v>33</v>
@@ -55161,7 +55176,7 @@
         <v>8</v>
       </c>
       <c r="L1688" s="5" t="s">
-        <v>3609</v>
+        <v>3612</v>
       </c>
       <c r="AD1688" s="0" t="s">
         <v>33</v>
@@ -55179,16 +55194,16 @@
         <v>1107</v>
       </c>
       <c r="F1689" s="6" t="s">
-        <v>3610</v>
+        <v>3613</v>
       </c>
       <c r="G1689" s="1" t="s">
-        <v>3611</v>
+        <v>3614</v>
       </c>
       <c r="H1689" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1689" s="5" t="s">
-        <v>3612</v>
+        <v>3615</v>
       </c>
       <c r="AC1689" s="9"/>
       <c r="AD1689" s="0" t="s">
@@ -55214,7 +55229,7 @@
         <v>8</v>
       </c>
       <c r="L1690" s="5" t="s">
-        <v>3613</v>
+        <v>3616</v>
       </c>
       <c r="AC1690" s="9"/>
       <c r="AD1690" s="0" t="s">
@@ -55233,16 +55248,16 @@
         <v>1108</v>
       </c>
       <c r="F1691" s="6" t="s">
-        <v>3614</v>
+        <v>3617</v>
       </c>
       <c r="G1691" s="1" t="s">
-        <v>3615</v>
+        <v>3618</v>
       </c>
       <c r="H1691" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1691" s="5" t="s">
-        <v>3616</v>
+        <v>3619</v>
       </c>
       <c r="AD1691" s="0" t="s">
         <v>33</v>
@@ -55267,7 +55282,7 @@
         <v>8</v>
       </c>
       <c r="L1692" s="5" t="s">
-        <v>3617</v>
+        <v>3620</v>
       </c>
       <c r="AD1692" s="0" t="s">
         <v>33</v>
@@ -55285,16 +55300,16 @@
         <v>1109</v>
       </c>
       <c r="F1693" s="6" t="s">
-        <v>3618</v>
+        <v>3621</v>
       </c>
       <c r="G1693" s="1" t="s">
-        <v>3619</v>
+        <v>3622</v>
       </c>
       <c r="H1693" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1693" s="5" t="s">
-        <v>3620</v>
+        <v>3623</v>
       </c>
       <c r="AD1693" s="0" t="s">
         <v>33</v>
@@ -55319,7 +55334,7 @@
         <v>8</v>
       </c>
       <c r="L1694" s="5" t="s">
-        <v>3621</v>
+        <v>3624</v>
       </c>
       <c r="AD1694" s="0" t="s">
         <v>33</v>
@@ -55337,10 +55352,10 @@
         <v>1110</v>
       </c>
       <c r="F1695" s="6" t="s">
-        <v>3622</v>
+        <v>3625</v>
       </c>
       <c r="G1695" s="1" t="s">
-        <v>3623</v>
+        <v>3626</v>
       </c>
       <c r="H1695" s="1" t="s">
         <v>49</v>
@@ -55389,10 +55404,10 @@
         <v>1111</v>
       </c>
       <c r="F1697" s="6" t="s">
-        <v>3624</v>
+        <v>3627</v>
       </c>
       <c r="G1697" s="1" t="s">
-        <v>3625</v>
+        <v>3628</v>
       </c>
       <c r="H1697" s="1" t="s">
         <v>49</v>
@@ -55442,13 +55457,13 @@
         <v>1112</v>
       </c>
       <c r="F1699" s="6" t="s">
-        <v>3626</v>
+        <v>3629</v>
       </c>
       <c r="G1699" s="1" t="s">
-        <v>3627</v>
+        <v>3630</v>
       </c>
       <c r="L1699" s="5" t="s">
-        <v>3628</v>
+        <v>3631</v>
       </c>
       <c r="AD1699" s="0" t="s">
         <v>33</v>
@@ -55466,13 +55481,13 @@
         <v>1113</v>
       </c>
       <c r="F1700" s="6" t="s">
-        <v>3629</v>
+        <v>3632</v>
       </c>
       <c r="G1700" s="1" t="s">
-        <v>3630</v>
+        <v>3633</v>
       </c>
       <c r="L1700" s="5" t="s">
-        <v>3631</v>
+        <v>3634</v>
       </c>
       <c r="AC1700" s="9" t="s">
         <v>303</v>
@@ -55493,13 +55508,13 @@
         <v>1113</v>
       </c>
       <c r="F1701" s="6" t="s">
-        <v>3629</v>
+        <v>3632</v>
       </c>
       <c r="G1701" s="1" t="s">
-        <v>3630</v>
+        <v>3633</v>
       </c>
       <c r="L1701" s="5" t="s">
-        <v>3632</v>
+        <v>3635</v>
       </c>
       <c r="AD1701" s="0" t="s">
         <v>33</v>
@@ -55517,16 +55532,16 @@
         <v>1114</v>
       </c>
       <c r="F1702" s="6" t="s">
-        <v>3633</v>
+        <v>3636</v>
       </c>
       <c r="G1702" s="1" t="s">
-        <v>3634</v>
+        <v>3637</v>
       </c>
       <c r="H1702" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1702" s="5" t="s">
-        <v>3635</v>
+        <v>3638</v>
       </c>
       <c r="AD1702" s="0" t="s">
         <v>33</v>
@@ -55551,7 +55566,7 @@
         <v>8</v>
       </c>
       <c r="L1703" s="5" t="s">
-        <v>3636</v>
+        <v>3639</v>
       </c>
       <c r="AD1703" s="0" t="s">
         <v>33</v>
@@ -55569,13 +55584,13 @@
         <v>1115</v>
       </c>
       <c r="F1704" s="6" t="s">
-        <v>3637</v>
+        <v>3640</v>
       </c>
       <c r="G1704" s="1" t="s">
-        <v>3638</v>
+        <v>3641</v>
       </c>
       <c r="L1704" s="5" t="s">
-        <v>3639</v>
+        <v>3642</v>
       </c>
       <c r="AD1704" s="0" t="s">
         <v>33</v>
@@ -55593,10 +55608,10 @@
         <v>1116</v>
       </c>
       <c r="F1705" s="6" t="s">
-        <v>3640</v>
+        <v>3643</v>
       </c>
       <c r="G1705" s="1" t="s">
-        <v>3641</v>
+        <v>3644</v>
       </c>
       <c r="H1705" s="1" t="s">
         <v>49</v>
@@ -55628,7 +55643,7 @@
         <v>8</v>
       </c>
       <c r="L1706" s="5" t="s">
-        <v>3642</v>
+        <v>3645</v>
       </c>
       <c r="AD1706" s="0" t="s">
         <v>33</v>
@@ -55646,16 +55661,16 @@
         <v>1117</v>
       </c>
       <c r="F1707" s="6" t="s">
-        <v>3643</v>
+        <v>3646</v>
       </c>
       <c r="G1707" s="1" t="s">
-        <v>3644</v>
+        <v>3647</v>
       </c>
       <c r="H1707" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1707" s="5" t="s">
-        <v>3645</v>
+        <v>3648</v>
       </c>
       <c r="AD1707" s="0" t="s">
         <v>33</v>
@@ -55680,7 +55695,7 @@
         <v>8</v>
       </c>
       <c r="L1708" s="5" t="s">
-        <v>3646</v>
+        <v>3649</v>
       </c>
       <c r="AD1708" s="0" t="s">
         <v>33</v>
@@ -55698,16 +55713,16 @@
         <v>1118</v>
       </c>
       <c r="F1709" s="6" t="s">
-        <v>3647</v>
+        <v>3650</v>
       </c>
       <c r="G1709" s="1" t="s">
-        <v>3648</v>
+        <v>3651</v>
       </c>
       <c r="H1709" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1709" s="5" t="s">
-        <v>3649</v>
+        <v>3652</v>
       </c>
       <c r="AD1709" s="0" t="s">
         <v>33</v>
@@ -55732,7 +55747,7 @@
         <v>8</v>
       </c>
       <c r="L1710" s="5" t="s">
-        <v>3650</v>
+        <v>3653</v>
       </c>
       <c r="AD1710" s="0" t="s">
         <v>33</v>
@@ -55750,13 +55765,13 @@
         <v>1119</v>
       </c>
       <c r="F1711" s="6" t="s">
-        <v>3651</v>
+        <v>3654</v>
       </c>
       <c r="G1711" s="1" t="s">
-        <v>3652</v>
+        <v>3655</v>
       </c>
       <c r="L1711" s="5" t="s">
-        <v>3653</v>
+        <v>3656</v>
       </c>
       <c r="AD1711" s="0" t="s">
         <v>33</v>
@@ -55774,16 +55789,16 @@
         <v>1120</v>
       </c>
       <c r="F1712" s="6" t="s">
-        <v>3654</v>
+        <v>3657</v>
       </c>
       <c r="G1712" s="1" t="s">
-        <v>3655</v>
+        <v>3658</v>
       </c>
       <c r="H1712" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L1712" s="5" t="s">
-        <v>3656</v>
+        <v>3659</v>
       </c>
       <c r="AD1712" s="0" t="s">
         <v>33</v>
@@ -55808,7 +55823,7 @@
         <v>8</v>
       </c>
       <c r="L1713" s="5" t="s">
-        <v>3657</v>
+        <v>3660</v>
       </c>
       <c r="AD1713" s="0" t="s">
         <v>33</v>
@@ -55826,13 +55841,13 @@
         <v>1121</v>
       </c>
       <c r="F1714" s="6" t="s">
-        <v>3658</v>
+        <v>3661</v>
       </c>
       <c r="G1714" s="1" t="s">
-        <v>3659</v>
+        <v>3662</v>
       </c>
       <c r="L1714" s="5" t="s">
-        <v>3660</v>
+        <v>3663</v>
       </c>
       <c r="AD1714" s="0" t="s">
         <v>33</v>
@@ -55850,13 +55865,13 @@
         <v>1122</v>
       </c>
       <c r="F1715" s="6" t="s">
-        <v>3661</v>
+        <v>3664</v>
       </c>
       <c r="G1715" s="1" t="s">
-        <v>3662</v>
+        <v>3665</v>
       </c>
       <c r="L1715" s="5" t="s">
-        <v>3663</v>
+        <v>3666</v>
       </c>
       <c r="AD1715" s="0" t="s">
         <v>33</v>
@@ -55874,13 +55889,13 @@
         <v>1123</v>
       </c>
       <c r="F1716" s="6" t="s">
-        <v>3664</v>
+        <v>3667</v>
       </c>
       <c r="G1716" s="1" t="s">
-        <v>3665</v>
+        <v>3668</v>
       </c>
       <c r="L1716" s="5" t="s">
-        <v>3666</v>
+        <v>3669</v>
       </c>
       <c r="AC1716" s="9"/>
       <c r="AD1716" s="0" t="s">
@@ -55899,13 +55914,13 @@
         <v>1124</v>
       </c>
       <c r="F1717" s="6" t="s">
-        <v>3667</v>
+        <v>3670</v>
       </c>
       <c r="G1717" s="1" t="s">
-        <v>3668</v>
+        <v>3671</v>
       </c>
       <c r="L1717" s="5" t="s">
-        <v>3669</v>
+        <v>3672</v>
       </c>
       <c r="AD1717" s="0" t="s">
         <v>33</v>
@@ -55923,10 +55938,10 @@
         <v>1125</v>
       </c>
       <c r="F1718" s="6" t="s">
-        <v>3670</v>
+        <v>3673</v>
       </c>
       <c r="G1718" s="1" t="s">
-        <v>3671</v>
+        <v>3674</v>
       </c>
       <c r="L1718" s="5" t="s">
         <v>2607</v>
@@ -55951,16 +55966,16 @@
         <v>1126</v>
       </c>
       <c r="F1719" s="6" t="s">
-        <v>3672</v>
+        <v>3675</v>
       </c>
       <c r="G1719" s="1" t="s">
-        <v>3673</v>
+        <v>3676</v>
       </c>
       <c r="J1719" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L1719" s="5" t="s">
-        <v>3674</v>
+        <v>3677</v>
       </c>
       <c r="AD1719" s="0" t="s">
         <v>33</v>
@@ -55978,13 +55993,13 @@
         <v>1127</v>
       </c>
       <c r="F1720" s="6" t="s">
-        <v>3675</v>
+        <v>3678</v>
       </c>
       <c r="G1720" s="1" t="s">
-        <v>3676</v>
+        <v>3679</v>
       </c>
       <c r="L1720" s="5" t="s">
-        <v>3677</v>
+        <v>3680</v>
       </c>
       <c r="AD1720" s="0" t="s">
         <v>33</v>
@@ -56002,13 +56017,13 @@
         <v>1128</v>
       </c>
       <c r="F1721" s="6" t="s">
-        <v>3678</v>
+        <v>3681</v>
       </c>
       <c r="G1721" s="1" t="s">
-        <v>3679</v>
+        <v>3682</v>
       </c>
       <c r="L1721" s="5" t="s">
-        <v>3680</v>
+        <v>3683</v>
       </c>
       <c r="AD1721" s="0" t="s">
         <v>33</v>
@@ -56026,10 +56041,10 @@
         <v>1129</v>
       </c>
       <c r="F1722" s="6" t="s">
-        <v>3681</v>
+        <v>3684</v>
       </c>
       <c r="G1722" s="1" t="s">
-        <v>3682</v>
+        <v>3685</v>
       </c>
       <c r="L1722" s="5" t="s">
         <v>35</v>
@@ -56052,10 +56067,10 @@
       </c>
       <c r="E1723" s="0"/>
       <c r="F1723" s="0" t="s">
-        <v>3683</v>
+        <v>3686</v>
       </c>
       <c r="G1723" s="0" t="s">
-        <v>3684</v>
+        <v>3687</v>
       </c>
       <c r="H1723" s="0"/>
       <c r="I1723" s="0"/>
@@ -56081,10 +56096,10 @@
       </c>
       <c r="E1724" s="0"/>
       <c r="F1724" s="0" t="s">
-        <v>3685</v>
+        <v>3688</v>
       </c>
       <c r="G1724" s="0" t="s">
-        <v>3686</v>
+        <v>3689</v>
       </c>
       <c r="H1724" s="0"/>
       <c r="I1724" s="0"/>
@@ -56110,10 +56125,10 @@
       </c>
       <c r="E1725" s="0"/>
       <c r="F1725" s="0" t="s">
-        <v>3687</v>
+        <v>3690</v>
       </c>
       <c r="G1725" s="0" t="s">
-        <v>3688</v>
+        <v>3691</v>
       </c>
       <c r="H1725" s="0"/>
       <c r="I1725" s="0"/>
@@ -56147,7 +56162,7 @@
       <c r="K1728" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:AD1725"/>
+  <autoFilter ref="B1:K1725"/>
   <conditionalFormatting sqref="AE1:IO1 D1:AC1">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>LEN(TRIM(D1))&gt;0</formula>

--- a/lists/zilo.xlsx
+++ b/lists/zilo.xlsx
@@ -11,12 +11,12 @@
     <sheet name="lexcauc" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">lexcauc!$B$1:$K$1725</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">lexcauc!$B$1:$AD$1725</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn__FilterDatabase" vbProcedure="false">lexcauc!$I$1:$K$2310</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="parameters" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="parameters_1" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="parameters_2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">lexcauc!$B$1:$AD$1725</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">lexcauc!$B$1:$K$1725</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -11883,10 +11883,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="K1537" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H1549" activeCellId="0" sqref="H1549"/>
+      <selection pane="bottomLeft" activeCell="D1549" activeCellId="0" sqref="D1549"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="5.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.15"/>
@@ -51688,7 +51688,7 @@
       </c>
       <c r="C1549" s="1"/>
       <c r="D1549" s="1" t="n">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F1549" s="2" t="s">
         <v>3281</v>
@@ -56162,7 +56162,7 @@
       <c r="K1728" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:K1725"/>
+  <autoFilter ref="B1:AD1725"/>
   <conditionalFormatting sqref="AE1:IO1 D1:AC1">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>LEN(TRIM(D1))&gt;0</formula>
